--- a/documents/Excel Sheets/ReportingEmail.xlsx
+++ b/documents/Excel Sheets/ReportingEmail.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="71" documentId="102_{AB2713CF-8507-4FF7-890A-1726EE9B988F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{246F4815-2E5B-4D7A-A824-4824DF17317B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18153C54-3C50-4C92-8805-A13C18673531}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DetailedReport" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -482,7 +482,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1 A1:XFD14"/>
+      <selection sqref="A1 A1 A1:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC44DA23-958B-4CC7-846E-F276753AF0EE}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2 A2:C6"/>
+      <selection activeCell="A2" sqref="A2 A2 A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,27 +1152,67 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>113320</v>
+      </c>
+      <c r="C7" s="1">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>113320</v>
+      </c>
+      <c r="C8" s="1">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1">
+        <v>133400</v>
+      </c>
+      <c r="C9" s="1">
+        <v>101780</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1">
+        <v>55000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <v>59470</v>
+      </c>
+      <c r="C11" s="1">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010032F5BFA72ECF3B4C93C706218857990E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d3b50624b4e387d77ca71f244163e4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6aa5cd12-4664-4072-a81c-5fd2e4b15966" xmlns:ns4="7be6dd44-53c4-4f66-a09c-89a638adedfe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f065d46464f9ba466905c1795496136" ns3:_="" ns4:_="">
     <xsd:import namespace="6aa5cd12-4664-4072-a81c-5fd2e4b15966"/>
@@ -1375,10 +1415,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F60A7FC7-49D8-4130-8A30-CAD2090583B6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51C92A39-B13C-47CD-A8EE-49F35CEDEFA8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6aa5cd12-4664-4072-a81c-5fd2e4b15966"/>
+    <ds:schemaRef ds:uri="7be6dd44-53c4-4f66-a09c-89a638adedfe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1401,20 +1467,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51C92A39-B13C-47CD-A8EE-49F35CEDEFA8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F60A7FC7-49D8-4130-8A30-CAD2090583B6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6aa5cd12-4664-4072-a81c-5fd2e4b15966"/>
-    <ds:schemaRef ds:uri="7be6dd44-53c4-4f66-a09c-89a638adedfe"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>